--- a/medicine/Sexualité et sexologie/Mon_Dieu,_comment_suis-je_tombée_si_bas__/Mon_Dieu,_comment_suis-je_tombée_si_bas__.xlsx
+++ b/medicine/Sexualité et sexologie/Mon_Dieu,_comment_suis-je_tombée_si_bas__/Mon_Dieu,_comment_suis-je_tombée_si_bas__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon_Dieu,_comment_suis-je_tomb%C3%A9e_si_bas_%3F</t>
+          <t>Mon_Dieu,_comment_suis-je_tombée_si_bas_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mon Dieu, comment suis-je tombée si bas ? (« Mio Dio,  come sono caduta in basso! ») est un film italien réalisé par Luigi Comencini et sorti en 1974.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mon_Dieu,_comment_suis-je_tomb%C3%A9e_si_bas_%3F</t>
+          <t>Mon_Dieu,_comment_suis-je_tombée_si_bas_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Sicile, en 1908, Eugenia de Maqueda (Laura Antonelli) et Raimondo Corrao (Alberto Lionello) découvrent lors de leur nuit de noces qu’ils sont frère et sœur (Raimondo étant le fruit adultérin du marquis Ruggero de Maqueda, père d'Eugenia). Il leur est donc impossible de consommer le mariage. Pour des questions d’apparences à sauvegarder et aussi d'héritage, ils décident de ne rien dire à personne et de vivre dans la chasteté absolue.
 Mais les besoins de la belle Eugenia  sont de plus en plus pressants. Après avoir presque succombé aux avances d'un baron français, elle va perdre la raison avec son jeune et beau chauffeur Silvano (Michele Placido) à plusieurs reprises dans une cabane de la campagne sicilienne ensoleillée. Lorsque le mari et frère part à la guerre en Libye, Eugenia rêve d'avoir un enfant de l’écrivain célèbre Gabriele D'Annunzio puis entretient une relation éphémère intime avec une amie étrangère, Evelyn (Karin Schubert).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mon_Dieu,_comment_suis-je_tomb%C3%A9e_si_bas_%3F</t>
+          <t>Mon_Dieu,_comment_suis-je_tombée_si_bas_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Luigi Comencini
 Scénario : Ivo Perilli, Luigi Comencini
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mon_Dieu,_comment_suis-je_tomb%C3%A9e_si_bas_%3F</t>
+          <t>Mon_Dieu,_comment_suis-je_tombée_si_bas_?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Laura Antonelli (VF : Évelyn Séléna) : Eugenia Di Maqueda
 Alberto Lionello (VF : Georges Aminel) : Raimondo Corrao, marquis De Maqueda
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mon_Dieu,_comment_suis-je_tomb%C3%A9e_si_bas_%3F</t>
+          <t>Mon_Dieu,_comment_suis-je_tombée_si_bas_?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +651,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Globe d'or de la meilleure actrice en 1975 pour Laura Antonelli</t>
         </is>
@@ -645,7 +665,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mon_Dieu,_comment_suis-je_tomb%C3%A9e_si_bas_%3F</t>
+          <t>Mon_Dieu,_comment_suis-je_tombée_si_bas_?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,10 +683,12 @@
           <t>Critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le critique Jean Antoine Gili parle d'un « très grand film » en costumes et à la construction sophistiquée, malgré des concessions commerciales au genre du film érotique des années 1970[1]. Pour lui, Luigi Comencini, en bon architecte[2] qui ne construit pas une maison pour se faire plaisir mais pour qu'elle soit habitée par des gens, a avant tout réalisé un film fait pour être vu.
-Antoine Gili continue en disant que pour autant, la dérision et l'humour d'une comédie à l'italienne et les formes magnifiques de Laura Antonelli nue ne masquent pas complètement une réflexion élaborée. D'abord, il y a un message politique : le film montre comment la société aristocratique au tournant de la Première Guerre mondiale fait le lit du fascisme. Ensuite, au plan littéraire, on voit comment Gabriele D'Annunzio, bouffi de suffisance[3] et de frustration romantique, en plus d'encourager la débauche, emplit les têtes d'une vaine logorrhée.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le critique Jean Antoine Gili parle d'un « très grand film » en costumes et à la construction sophistiquée, malgré des concessions commerciales au genre du film érotique des années 1970. Pour lui, Luigi Comencini, en bon architecte qui ne construit pas une maison pour se faire plaisir mais pour qu'elle soit habitée par des gens, a avant tout réalisé un film fait pour être vu.
+Antoine Gili continue en disant que pour autant, la dérision et l'humour d'une comédie à l'italienne et les formes magnifiques de Laura Antonelli nue ne masquent pas complètement une réflexion élaborée. D'abord, il y a un message politique : le film montre comment la société aristocratique au tournant de la Première Guerre mondiale fait le lit du fascisme. Ensuite, au plan littéraire, on voit comment Gabriele D'Annunzio, bouffi de suffisance et de frustration romantique, en plus d'encourager la débauche, emplit les têtes d'une vaine logorrhée.
 </t>
         </is>
       </c>
